--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cntf-Lifr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cntf-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cntf</t>
   </si>
   <si>
     <t>Lifr</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.857377159055374</v>
+        <v>1.249087666666667</v>
       </c>
       <c r="H2">
-        <v>0.857377159055374</v>
+        <v>3.747263</v>
       </c>
       <c r="I2">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="J2">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.965187833089</v>
+        <v>26.31197333333334</v>
       </c>
       <c r="N2">
-        <v>16.965187833089</v>
+        <v>78.93592000000001</v>
       </c>
       <c r="O2">
-        <v>0.1667851205293457</v>
+        <v>0.2261559208386891</v>
       </c>
       <c r="P2">
-        <v>0.1667851205293457</v>
+        <v>0.2261559208386891</v>
       </c>
       <c r="Q2">
-        <v>14.54556454717464</v>
+        <v>32.86596137632889</v>
       </c>
       <c r="R2">
-        <v>14.54556454717464</v>
+        <v>295.79365238696</v>
       </c>
       <c r="S2">
-        <v>0.1261998302437288</v>
+        <v>0.08281630555242017</v>
       </c>
       <c r="T2">
-        <v>0.1261998302437288</v>
+        <v>0.08281630555242014</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.857377159055374</v>
+        <v>1.249087666666667</v>
       </c>
       <c r="H3">
-        <v>0.857377159055374</v>
+        <v>3.747263</v>
       </c>
       <c r="I3">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="J3">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.8295799177661</v>
+        <v>53.74150833333334</v>
       </c>
       <c r="N3">
-        <v>52.8295799177661</v>
+        <v>161.224525</v>
       </c>
       <c r="O3">
-        <v>0.5193687179174006</v>
+        <v>0.461917475759518</v>
       </c>
       <c r="P3">
-        <v>0.5193687179174006</v>
+        <v>0.461917475759518</v>
       </c>
       <c r="Q3">
-        <v>45.29487514398313</v>
+        <v>67.12785524723056</v>
       </c>
       <c r="R3">
-        <v>45.29487514398313</v>
+        <v>604.150697225075</v>
       </c>
       <c r="S3">
-        <v>0.3929861598388005</v>
+        <v>0.1691501096705252</v>
       </c>
       <c r="T3">
-        <v>0.3929861598388005</v>
+        <v>0.1691501096705252</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.857377159055374</v>
+        <v>1.249087666666667</v>
       </c>
       <c r="H4">
-        <v>0.857377159055374</v>
+        <v>3.747263</v>
       </c>
       <c r="I4">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="J4">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.8471428774534</v>
+        <v>21.978693</v>
       </c>
       <c r="N4">
-        <v>17.8471428774534</v>
+        <v>65.93607899999999</v>
       </c>
       <c r="O4">
-        <v>0.1754556392305228</v>
+        <v>0.1889106336220259</v>
       </c>
       <c r="P4">
-        <v>0.1754556392305228</v>
+        <v>0.1889106336220259</v>
       </c>
       <c r="Q4">
-        <v>15.30173265752635</v>
+        <v>27.45331435575299</v>
       </c>
       <c r="R4">
-        <v>15.30173265752635</v>
+        <v>247.079829201777</v>
       </c>
       <c r="S4">
-        <v>0.1327604753704691</v>
+        <v>0.06917740954172086</v>
       </c>
       <c r="T4">
-        <v>0.1327604753704691</v>
+        <v>0.06917740954172084</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.857377159055374</v>
+        <v>1.249087666666667</v>
       </c>
       <c r="H5">
-        <v>0.857377159055374</v>
+        <v>3.747263</v>
       </c>
       <c r="I5">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="J5">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.076922438122</v>
+        <v>14.31221833333333</v>
       </c>
       <c r="N5">
-        <v>14.076922438122</v>
+        <v>42.936655</v>
       </c>
       <c r="O5">
-        <v>0.138390522322731</v>
+        <v>0.123015969779767</v>
       </c>
       <c r="P5">
-        <v>0.138390522322731</v>
+        <v>0.123015969779767</v>
       </c>
       <c r="Q5">
-        <v>12.06923176823989</v>
+        <v>17.87721540280722</v>
       </c>
       <c r="R5">
-        <v>12.06923176823989</v>
+        <v>160.894938625265</v>
       </c>
       <c r="S5">
-        <v>0.1047147393546818</v>
+        <v>0.04504736424024511</v>
       </c>
       <c r="T5">
-        <v>0.1047147393546818</v>
+        <v>0.0450473642402451</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.275728587093317</v>
+        <v>0.5813396666666667</v>
       </c>
       <c r="H6">
-        <v>0.275728587093317</v>
+        <v>1.744019</v>
       </c>
       <c r="I6">
-        <v>0.2433387951923197</v>
+        <v>0.1704295618581233</v>
       </c>
       <c r="J6">
-        <v>0.2433387951923197</v>
+        <v>0.1704295618581232</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.965187833089</v>
+        <v>26.31197333333334</v>
       </c>
       <c r="N6">
-        <v>16.965187833089</v>
+        <v>78.93592000000001</v>
       </c>
       <c r="O6">
-        <v>0.1667851205293457</v>
+        <v>0.2261559208386891</v>
       </c>
       <c r="P6">
-        <v>0.1667851205293457</v>
+        <v>0.2261559208386891</v>
       </c>
       <c r="Q6">
-        <v>4.677787270990362</v>
+        <v>15.29619380694223</v>
       </c>
       <c r="R6">
-        <v>4.677787270990362</v>
+        <v>137.66574426248</v>
       </c>
       <c r="S6">
-        <v>0.0405852902856168</v>
+        <v>0.0385436545001582</v>
       </c>
       <c r="T6">
-        <v>0.0405852902856168</v>
+        <v>0.03854365450015819</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.275728587093317</v>
+        <v>0.5813396666666667</v>
       </c>
       <c r="H7">
-        <v>0.275728587093317</v>
+        <v>1.744019</v>
       </c>
       <c r="I7">
-        <v>0.2433387951923197</v>
+        <v>0.1704295618581233</v>
       </c>
       <c r="J7">
-        <v>0.2433387951923197</v>
+        <v>0.1704295618581232</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.8295799177661</v>
+        <v>53.74150833333334</v>
       </c>
       <c r="N7">
-        <v>52.8295799177661</v>
+        <v>161.224525</v>
       </c>
       <c r="O7">
-        <v>0.5193687179174006</v>
+        <v>0.461917475759518</v>
       </c>
       <c r="P7">
-        <v>0.5193687179174006</v>
+        <v>0.461917475759518</v>
       </c>
       <c r="Q7">
-        <v>14.56662542745912</v>
+        <v>31.24207054066389</v>
       </c>
       <c r="R7">
-        <v>14.56662542745912</v>
+        <v>281.178634865975</v>
       </c>
       <c r="S7">
-        <v>0.1263825580786</v>
+        <v>0.07872439300830493</v>
       </c>
       <c r="T7">
-        <v>0.1263825580786</v>
+        <v>0.07872439300830492</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.275728587093317</v>
+        <v>0.5813396666666667</v>
       </c>
       <c r="H8">
-        <v>0.275728587093317</v>
+        <v>1.744019</v>
       </c>
       <c r="I8">
-        <v>0.2433387951923197</v>
+        <v>0.1704295618581233</v>
       </c>
       <c r="J8">
-        <v>0.2433387951923197</v>
+        <v>0.1704295618581232</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.8471428774534</v>
+        <v>21.978693</v>
       </c>
       <c r="N8">
-        <v>17.8471428774534</v>
+        <v>65.93607899999999</v>
       </c>
       <c r="O8">
-        <v>0.1754556392305228</v>
+        <v>0.1889106336220259</v>
       </c>
       <c r="P8">
-        <v>0.1754556392305228</v>
+        <v>0.1889106336220259</v>
       </c>
       <c r="Q8">
-        <v>4.920967489252781</v>
+        <v>12.777086062389</v>
       </c>
       <c r="R8">
-        <v>4.920967489252781</v>
+        <v>114.993774561501</v>
       </c>
       <c r="S8">
-        <v>0.04269516386005372</v>
+        <v>0.03219595651854233</v>
       </c>
       <c r="T8">
-        <v>0.04269516386005372</v>
+        <v>0.03219595651854232</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.5813396666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.744019</v>
+      </c>
+      <c r="I9">
+        <v>0.1704295618581233</v>
+      </c>
+      <c r="J9">
+        <v>0.1704295618581232</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>14.31221833333333</v>
+      </c>
+      <c r="N9">
+        <v>42.936655</v>
+      </c>
+      <c r="O9">
+        <v>0.123015969779767</v>
+      </c>
+      <c r="P9">
+        <v>0.123015969779767</v>
+      </c>
+      <c r="Q9">
+        <v>8.320260235160557</v>
+      </c>
+      <c r="R9">
+        <v>74.88234211644502</v>
+      </c>
+      <c r="S9">
+        <v>0.02096555783111782</v>
+      </c>
+      <c r="T9">
+        <v>0.02096555783111782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.704738</v>
+      </c>
+      <c r="H10">
+        <v>2.114214</v>
+      </c>
+      <c r="I10">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="J10">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>26.31197333333334</v>
+      </c>
+      <c r="N10">
+        <v>78.93592000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.2261559208386891</v>
+      </c>
+      <c r="P10">
+        <v>0.2261559208386891</v>
+      </c>
+      <c r="Q10">
+        <v>18.54304746298667</v>
+      </c>
+      <c r="R10">
+        <v>166.88742716688</v>
+      </c>
+      <c r="S10">
+        <v>0.04672514115694695</v>
+      </c>
+      <c r="T10">
+        <v>0.04672514115694693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.704738</v>
+      </c>
+      <c r="H11">
+        <v>2.114214</v>
+      </c>
+      <c r="I11">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="J11">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>53.74150833333334</v>
+      </c>
+      <c r="N11">
+        <v>161.224525</v>
+      </c>
+      <c r="O11">
+        <v>0.461917475759518</v>
+      </c>
+      <c r="P11">
+        <v>0.461917475759518</v>
+      </c>
+      <c r="Q11">
+        <v>37.87368309981667</v>
+      </c>
+      <c r="R11">
+        <v>340.86314789835</v>
+      </c>
+      <c r="S11">
+        <v>0.09543486271632384</v>
+      </c>
+      <c r="T11">
+        <v>0.09543486271632382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.704738</v>
+      </c>
+      <c r="H12">
+        <v>2.114214</v>
+      </c>
+      <c r="I12">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="J12">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>21.978693</v>
+      </c>
+      <c r="N12">
+        <v>65.93607899999999</v>
+      </c>
+      <c r="O12">
+        <v>0.1889106336220259</v>
+      </c>
+      <c r="P12">
+        <v>0.1889106336220259</v>
+      </c>
+      <c r="Q12">
+        <v>15.489220147434</v>
+      </c>
+      <c r="R12">
+        <v>139.402981326906</v>
+      </c>
+      <c r="S12">
+        <v>0.03903004612615656</v>
+      </c>
+      <c r="T12">
+        <v>0.03903004612615656</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.704738</v>
+      </c>
+      <c r="H13">
+        <v>2.114214</v>
+      </c>
+      <c r="I13">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="J13">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>14.31221833333333</v>
+      </c>
+      <c r="N13">
+        <v>42.936655</v>
+      </c>
+      <c r="O13">
+        <v>0.123015969779767</v>
+      </c>
+      <c r="P13">
+        <v>0.123015969779767</v>
+      </c>
+      <c r="Q13">
+        <v>10.08636412379667</v>
+      </c>
+      <c r="R13">
+        <v>90.77727711417</v>
+      </c>
+      <c r="S13">
+        <v>0.02541582166499271</v>
+      </c>
+      <c r="T13">
+        <v>0.02541582166499271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.275728587093317</v>
-      </c>
-      <c r="H9">
-        <v>0.275728587093317</v>
-      </c>
-      <c r="I9">
-        <v>0.2433387951923197</v>
-      </c>
-      <c r="J9">
-        <v>0.2433387951923197</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>14.076922438122</v>
-      </c>
-      <c r="N9">
-        <v>14.076922438122</v>
-      </c>
-      <c r="O9">
-        <v>0.138390522322731</v>
-      </c>
-      <c r="P9">
-        <v>0.138390522322731</v>
-      </c>
-      <c r="Q9">
-        <v>3.88140993448559</v>
-      </c>
-      <c r="R9">
-        <v>3.88140993448559</v>
-      </c>
-      <c r="S9">
-        <v>0.0336757829680492</v>
-      </c>
-      <c r="T9">
-        <v>0.0336757829680492</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.8758606666666667</v>
+      </c>
+      <c r="H14">
+        <v>2.627582</v>
+      </c>
+      <c r="I14">
+        <v>0.2567733774725455</v>
+      </c>
+      <c r="J14">
+        <v>0.2567733774725454</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>26.31197333333334</v>
+      </c>
+      <c r="N14">
+        <v>78.93592000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.2261559208386891</v>
+      </c>
+      <c r="P14">
+        <v>0.2261559208386891</v>
+      </c>
+      <c r="Q14">
+        <v>23.04562250504889</v>
+      </c>
+      <c r="R14">
+        <v>207.41060254544</v>
+      </c>
+      <c r="S14">
+        <v>0.05807081962916383</v>
+      </c>
+      <c r="T14">
+        <v>0.05807081962916381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.8758606666666667</v>
+      </c>
+      <c r="H15">
+        <v>2.627582</v>
+      </c>
+      <c r="I15">
+        <v>0.2567733774725455</v>
+      </c>
+      <c r="J15">
+        <v>0.2567733774725454</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>53.74150833333334</v>
+      </c>
+      <c r="N15">
+        <v>161.224525</v>
+      </c>
+      <c r="O15">
+        <v>0.461917475759518</v>
+      </c>
+      <c r="P15">
+        <v>0.461917475759518</v>
+      </c>
+      <c r="Q15">
+        <v>47.07007331650556</v>
+      </c>
+      <c r="R15">
+        <v>423.6306598485501</v>
+      </c>
+      <c r="S15">
+        <v>0.1186081103643641</v>
+      </c>
+      <c r="T15">
+        <v>0.1186081103643641</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.8758606666666667</v>
+      </c>
+      <c r="H16">
+        <v>2.627582</v>
+      </c>
+      <c r="I16">
+        <v>0.2567733774725455</v>
+      </c>
+      <c r="J16">
+        <v>0.2567733774725454</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>21.978693</v>
+      </c>
+      <c r="N16">
+        <v>65.93607899999999</v>
+      </c>
+      <c r="O16">
+        <v>0.1889106336220259</v>
+      </c>
+      <c r="P16">
+        <v>0.1889106336220259</v>
+      </c>
+      <c r="Q16">
+        <v>19.250272703442</v>
+      </c>
+      <c r="R16">
+        <v>173.252454330978</v>
+      </c>
+      <c r="S16">
+        <v>0.0485072214356062</v>
+      </c>
+      <c r="T16">
+        <v>0.04850722143560619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.8758606666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.627582</v>
+      </c>
+      <c r="I17">
+        <v>0.2567733774725455</v>
+      </c>
+      <c r="J17">
+        <v>0.2567733774725454</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>14.31221833333333</v>
+      </c>
+      <c r="N17">
+        <v>42.936655</v>
+      </c>
+      <c r="O17">
+        <v>0.123015969779767</v>
+      </c>
+      <c r="P17">
+        <v>0.123015969779767</v>
+      </c>
+      <c r="Q17">
+        <v>12.53550909091222</v>
+      </c>
+      <c r="R17">
+        <v>112.81958181821</v>
+      </c>
+      <c r="S17">
+        <v>0.03158722604341135</v>
+      </c>
+      <c r="T17">
+        <v>0.03158722604341135</v>
       </c>
     </row>
   </sheetData>
